--- a/data/144/RKB/RKB.xlsx
+++ b/data/144/RKB/RKB.xlsx
@@ -12,12 +12,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="142">
   <si>
     <t>Interest rates and exchange rates</t>
   </si>
   <si>
-    <t>ADVANCED RESULT 03/01/2011 - 28/12/2021</t>
+    <t>ADVANCED RESULT 02/01/2012 - 31/03/2022</t>
   </si>
   <si>
     <t>Swedish Government Bonds</t>
@@ -41,42 +41,6 @@
     <t>Average</t>
   </si>
   <si>
-    <t>2011 January</t>
-  </si>
-  <si>
-    <t>2011 February</t>
-  </si>
-  <si>
-    <t>2011 March</t>
-  </si>
-  <si>
-    <t>2011 April</t>
-  </si>
-  <si>
-    <t>2011 May</t>
-  </si>
-  <si>
-    <t>2011 June</t>
-  </si>
-  <si>
-    <t>2011 July</t>
-  </si>
-  <si>
-    <t>2011 August</t>
-  </si>
-  <si>
-    <t>2011 September</t>
-  </si>
-  <si>
-    <t>2011 October</t>
-  </si>
-  <si>
-    <t>2011 November</t>
-  </si>
-  <si>
-    <t>2011 December</t>
-  </si>
-  <si>
     <t>2012 January</t>
   </si>
   <si>
@@ -432,6 +396,21 @@
   </si>
   <si>
     <t>2021 November</t>
+  </si>
+  <si>
+    <t>2021 December</t>
+  </si>
+  <si>
+    <t>2022 January</t>
+  </si>
+  <si>
+    <t>2022 February</t>
+  </si>
+  <si>
+    <t>2022 March</t>
+  </si>
+  <si>
+    <t>n/a</t>
   </si>
   <si>
     <t/>
@@ -520,7 +499,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D151"/>
+  <dimension ref="A1:D143"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -577,13 +556,13 @@
         <v>9</v>
       </c>
       <c r="B6" s="4">
-        <v>3.281</v>
+        <v>1.7046</v>
       </c>
       <c r="C6" s="4">
-        <v>3.0383</v>
+        <v>2.144</v>
       </c>
       <c r="D6" s="4">
-        <v>4.1008</v>
+        <v>3.0019</v>
       </c>
     </row>
     <row r="7">
@@ -591,13 +570,13 @@
         <v>10</v>
       </c>
       <c r="B7" s="4">
-        <v>3.4076</v>
+        <v>1.8862</v>
       </c>
       <c r="C7" s="4">
-        <v>3.259</v>
+        <v>2.0467</v>
       </c>
       <c r="D7" s="4">
-        <v>4.3153</v>
+        <v>2.9567</v>
       </c>
     </row>
     <row r="8">
@@ -605,13 +584,13 @@
         <v>11</v>
       </c>
       <c r="B8" s="4">
-        <v>3.3518</v>
+        <v>1.9464</v>
       </c>
       <c r="C8" s="4">
-        <v>3.3648</v>
+        <v>2.0818</v>
       </c>
       <c r="D8" s="4">
-        <v>4.3687</v>
+        <v>3.0509</v>
       </c>
     </row>
     <row r="9">
@@ -619,13 +598,13 @@
         <v>12</v>
       </c>
       <c r="B9" s="4">
-        <v>3.3035</v>
+        <v>1.8237</v>
       </c>
       <c r="C9" s="4">
-        <v>3.2882</v>
+        <v>2.1355</v>
       </c>
       <c r="D9" s="4">
-        <v>4.2889</v>
+        <v>2.9942</v>
       </c>
     </row>
     <row r="10">
@@ -633,13 +612,13 @@
         <v>13</v>
       </c>
       <c r="B10" s="4">
-        <v>3.0146</v>
+        <v>1.5111</v>
       </c>
       <c r="C10" s="4">
-        <v>3.1052</v>
+        <v>1.919</v>
       </c>
       <c r="D10" s="4">
-        <v>3.9745</v>
+        <v>2.6967</v>
       </c>
     </row>
     <row r="11">
@@ -647,13 +626,13 @@
         <v>14</v>
       </c>
       <c r="B11" s="4">
-        <v>2.8843</v>
+        <v>1.4502</v>
       </c>
       <c r="C11" s="4">
-        <v>2.9692</v>
+        <v>1.8974</v>
       </c>
       <c r="D11" s="4">
-        <v>3.7913</v>
+        <v>2.6879</v>
       </c>
     </row>
     <row r="12">
@@ -661,13 +640,13 @@
         <v>15</v>
       </c>
       <c r="B12" s="4">
-        <v>2.7546</v>
+        <v>1.3332</v>
       </c>
       <c r="C12" s="4">
-        <v>2.8317</v>
+        <v>1.7498</v>
       </c>
       <c r="D12" s="4">
-        <v>3.715</v>
+        <v>2.493</v>
       </c>
     </row>
     <row r="13">
@@ -675,13 +654,13 @@
         <v>16</v>
       </c>
       <c r="B13" s="4">
-        <v>2.1658</v>
+        <v>1.4357</v>
       </c>
       <c r="C13" s="4">
-        <v>2.387</v>
+        <v>1.7933</v>
       </c>
       <c r="D13" s="4">
-        <v>3.1509</v>
+        <v>2.4561</v>
       </c>
     </row>
     <row r="14">
@@ -689,13 +668,13 @@
         <v>17</v>
       </c>
       <c r="B14" s="4">
-        <v>1.829</v>
+        <v>1.5082</v>
       </c>
       <c r="C14" s="4">
-        <v>2.2018</v>
+        <v>1.556</v>
       </c>
       <c r="D14" s="4">
-        <v>3.0625</v>
+        <v>2.2195</v>
       </c>
     </row>
     <row r="15">
@@ -703,13 +682,13 @@
         <v>18</v>
       </c>
       <c r="B15" s="4">
-        <v>1.9028</v>
+        <v>1.541</v>
       </c>
       <c r="C15" s="4">
-        <v>2.3393</v>
+        <v>1.3872</v>
       </c>
       <c r="D15" s="4">
-        <v>3.2567</v>
+        <v>2.0496</v>
       </c>
     </row>
     <row r="16">
@@ -717,13 +696,13 @@
         <v>19</v>
       </c>
       <c r="B16" s="4">
-        <v>1.6922</v>
+        <v>1.4592</v>
       </c>
       <c r="C16" s="4">
-        <v>2.1586</v>
+        <v>1.3378</v>
       </c>
       <c r="D16" s="4">
-        <v>3.0641</v>
+        <v>1.9288</v>
       </c>
     </row>
     <row r="17">
@@ -731,13 +710,13 @@
         <v>20</v>
       </c>
       <c r="B17" s="4">
-        <v>1.6769</v>
+        <v>1.5066</v>
       </c>
       <c r="C17" s="4">
-        <v>2.0564</v>
+        <v>1.3262</v>
       </c>
       <c r="D17" s="4">
-        <v>2.8629</v>
+        <v>1.8518</v>
       </c>
     </row>
     <row r="18">
@@ -745,13 +724,13 @@
         <v>21</v>
       </c>
       <c r="B18" s="4">
-        <v>1.7046</v>
+        <v>1.7987</v>
       </c>
       <c r="C18" s="4">
-        <v>2.144</v>
+        <v>1.4795</v>
       </c>
       <c r="D18" s="4">
-        <v>3.0019</v>
+        <v>2.0968</v>
       </c>
     </row>
     <row r="19">
@@ -759,13 +738,13 @@
         <v>22</v>
       </c>
       <c r="B19" s="4">
-        <v>1.8862</v>
+        <v>1.9987</v>
       </c>
       <c r="C19" s="4">
-        <v>2.0467</v>
+        <v>1.5593</v>
       </c>
       <c r="D19" s="4">
-        <v>2.9567</v>
+        <v>2.3078</v>
       </c>
     </row>
     <row r="20">
@@ -773,13 +752,13 @@
         <v>23</v>
       </c>
       <c r="B20" s="4">
-        <v>1.9464</v>
+        <v>1.9224</v>
       </c>
       <c r="C20" s="4">
-        <v>2.0818</v>
+        <v>1.6078</v>
       </c>
       <c r="D20" s="4">
-        <v>3.0509</v>
+        <v>2.252</v>
       </c>
     </row>
     <row r="21">
@@ -787,13 +766,13 @@
         <v>24</v>
       </c>
       <c r="B21" s="4">
-        <v>1.8237</v>
+        <v>1.6568</v>
       </c>
       <c r="C21" s="4">
-        <v>2.1355</v>
+        <v>1.4138</v>
       </c>
       <c r="D21" s="4">
-        <v>2.9942</v>
+        <v>1.9952</v>
       </c>
     </row>
     <row r="22">
@@ -801,13 +780,13 @@
         <v>25</v>
       </c>
       <c r="B22" s="4">
-        <v>1.5111</v>
+        <v>1.791</v>
       </c>
       <c r="C22" s="4">
-        <v>1.919</v>
+        <v>1.295</v>
       </c>
       <c r="D22" s="4">
-        <v>2.6967</v>
+        <v>1.929</v>
       </c>
     </row>
     <row r="23">
@@ -815,13 +794,13 @@
         <v>26</v>
       </c>
       <c r="B23" s="4">
-        <v>1.4502</v>
+        <v>2.0459</v>
       </c>
       <c r="C23" s="4">
-        <v>1.8974</v>
+        <v>1.4658</v>
       </c>
       <c r="D23" s="4">
-        <v>2.6879</v>
+        <v>2.2564</v>
       </c>
     </row>
     <row r="24">
@@ -829,13 +808,13 @@
         <v>27</v>
       </c>
       <c r="B24" s="4">
-        <v>1.3332</v>
+        <v>2.1605</v>
       </c>
       <c r="C24" s="4">
-        <v>1.7498</v>
+        <v>1.458</v>
       </c>
       <c r="D24" s="4">
-        <v>2.493</v>
+        <v>2.3772</v>
       </c>
     </row>
     <row r="25">
@@ -843,13 +822,13 @@
         <v>28</v>
       </c>
       <c r="B25" s="4">
-        <v>1.4357</v>
+        <v>2.3406</v>
       </c>
       <c r="C25" s="4">
-        <v>1.7933</v>
+        <v>1.4936</v>
       </c>
       <c r="D25" s="4">
-        <v>2.4561</v>
+        <v>2.5477</v>
       </c>
     </row>
     <row r="26">
@@ -857,13 +836,13 @@
         <v>29</v>
       </c>
       <c r="B26" s="4">
-        <v>1.5082</v>
+        <v>2.6018</v>
       </c>
       <c r="C26" s="4">
-        <v>1.556</v>
+        <v>1.4955</v>
       </c>
       <c r="D26" s="4">
-        <v>2.2195</v>
+        <v>2.7245</v>
       </c>
     </row>
     <row r="27">
@@ -871,13 +850,13 @@
         <v>30</v>
       </c>
       <c r="B27" s="4">
-        <v>1.541</v>
+        <v>2.4352</v>
       </c>
       <c r="C27" s="4">
-        <v>1.3872</v>
+        <v>1.3378</v>
       </c>
       <c r="D27" s="4">
-        <v>2.0496</v>
+        <v>2.4843</v>
       </c>
     </row>
     <row r="28">
@@ -885,13 +864,13 @@
         <v>31</v>
       </c>
       <c r="B28" s="4">
-        <v>1.4592</v>
+        <v>2.2977</v>
       </c>
       <c r="C28" s="4">
-        <v>1.3378</v>
+        <v>1.1226</v>
       </c>
       <c r="D28" s="4">
-        <v>1.9288</v>
+        <v>2.1674</v>
       </c>
     </row>
     <row r="29">
@@ -899,13 +878,13 @@
         <v>32</v>
       </c>
       <c r="B29" s="4">
-        <v>1.5066</v>
+        <v>2.3864</v>
       </c>
       <c r="C29" s="4">
-        <v>1.3262</v>
+        <v>1.0564</v>
       </c>
       <c r="D29" s="4">
-        <v>1.8518</v>
+        <v>2.1592</v>
       </c>
     </row>
     <row r="30">
@@ -913,13 +892,13 @@
         <v>33</v>
       </c>
       <c r="B30" s="4">
-        <v>1.7987</v>
+        <v>2.3707</v>
       </c>
       <c r="C30" s="4">
-        <v>1.4795</v>
+        <v>1.5416</v>
       </c>
       <c r="D30" s="4">
-        <v>2.0968</v>
+        <v>2.3872</v>
       </c>
     </row>
     <row r="31">
@@ -927,13 +906,13 @@
         <v>34</v>
       </c>
       <c r="B31" s="4">
-        <v>1.9987</v>
+        <v>2.2278</v>
       </c>
       <c r="C31" s="4">
-        <v>1.5593</v>
+        <v>1.4364</v>
       </c>
       <c r="D31" s="4">
-        <v>2.3078</v>
+        <v>2.2195</v>
       </c>
     </row>
     <row r="32">
@@ -941,13 +920,13 @@
         <v>35</v>
       </c>
       <c r="B32" s="4">
-        <v>1.9224</v>
+        <v>2.1613</v>
       </c>
       <c r="C32" s="4">
-        <v>1.6078</v>
+        <v>1.344</v>
       </c>
       <c r="D32" s="4">
-        <v>2.252</v>
+        <v>2.0941</v>
       </c>
     </row>
     <row r="33">
@@ -955,13 +934,13 @@
         <v>36</v>
       </c>
       <c r="B33" s="4">
-        <v>1.6568</v>
+        <v>2.0595</v>
       </c>
       <c r="C33" s="4">
-        <v>1.4138</v>
+        <v>1.1572</v>
       </c>
       <c r="D33" s="4">
-        <v>1.9952</v>
+        <v>1.894</v>
       </c>
     </row>
     <row r="34">
@@ -969,13 +948,13 @@
         <v>37</v>
       </c>
       <c r="B34" s="4">
-        <v>1.791</v>
+        <v>1.8781</v>
       </c>
       <c r="C34" s="4">
-        <v>1.295</v>
+        <v>1.0182</v>
       </c>
       <c r="D34" s="4">
-        <v>1.929</v>
+        <v>1.6918</v>
       </c>
     </row>
     <row r="35">
@@ -983,13 +962,13 @@
         <v>38</v>
       </c>
       <c r="B35" s="4">
-        <v>2.0459</v>
+        <v>1.8032</v>
       </c>
       <c r="C35" s="4">
-        <v>1.4658</v>
+        <v>0.9412</v>
       </c>
       <c r="D35" s="4">
-        <v>2.2564</v>
+        <v>1.5628</v>
       </c>
     </row>
     <row r="36">
@@ -997,13 +976,13 @@
         <v>39</v>
       </c>
       <c r="B36" s="4">
-        <v>2.1605</v>
+        <v>1.5957</v>
       </c>
       <c r="C36" s="4">
-        <v>1.458</v>
+        <v>0.6593</v>
       </c>
       <c r="D36" s="4">
-        <v>2.3772</v>
+        <v>1.2879</v>
       </c>
     </row>
     <row r="37">
@@ -1011,13 +990,13 @@
         <v>40</v>
       </c>
       <c r="B37" s="4">
-        <v>2.3406</v>
+        <v>1.5799</v>
       </c>
       <c r="C37" s="4">
-        <v>1.4936</v>
+        <v>0.7472</v>
       </c>
       <c r="D37" s="4">
-        <v>2.5477</v>
+        <v>1.1702</v>
       </c>
     </row>
     <row r="38">
@@ -1025,13 +1004,13 @@
         <v>41</v>
       </c>
       <c r="B38" s="4">
-        <v>2.6018</v>
+        <v>1.5132</v>
       </c>
       <c r="C38" s="4">
-        <v>1.4955</v>
+        <v>0.6422</v>
       </c>
       <c r="D38" s="4">
-        <v>2.7245</v>
+        <v>1.027</v>
       </c>
     </row>
     <row r="39">
@@ -1039,13 +1018,13 @@
         <v>42</v>
       </c>
       <c r="B39" s="4">
-        <v>2.4352</v>
+        <v>1.2987</v>
       </c>
       <c r="C39" s="4">
-        <v>1.3378</v>
+        <v>0.4959</v>
       </c>
       <c r="D39" s="4">
-        <v>2.4843</v>
+        <v>0.8695</v>
       </c>
     </row>
     <row r="40">
@@ -1053,13 +1032,13 @@
         <v>43</v>
       </c>
       <c r="B40" s="4">
-        <v>2.2977</v>
+        <v>1.136</v>
       </c>
       <c r="C40" s="4">
-        <v>1.1226</v>
+        <v>0.3513</v>
       </c>
       <c r="D40" s="4">
-        <v>2.1674</v>
+        <v>0.6815</v>
       </c>
     </row>
     <row r="41">
@@ -1067,13 +1046,13 @@
         <v>44</v>
       </c>
       <c r="B41" s="4">
-        <v>2.3864</v>
+        <v>1.0083</v>
       </c>
       <c r="C41" s="4">
-        <v>1.0564</v>
+        <v>0.3843</v>
       </c>
       <c r="D41" s="4">
-        <v>2.1592</v>
+        <v>0.6603</v>
       </c>
     </row>
     <row r="42">
@@ -1081,13 +1060,13 @@
         <v>45</v>
       </c>
       <c r="B42" s="4">
-        <v>2.3707</v>
+        <v>0.7812</v>
       </c>
       <c r="C42" s="4">
-        <v>1.5416</v>
+        <v>0.3674</v>
       </c>
       <c r="D42" s="4">
-        <v>2.3872</v>
+        <v>0.7791</v>
       </c>
     </row>
     <row r="43">
@@ -1095,13 +1074,13 @@
         <v>46</v>
       </c>
       <c r="B43" s="4">
-        <v>2.2278</v>
+        <v>0.6153</v>
       </c>
       <c r="C43" s="4">
-        <v>1.4364</v>
+        <v>0.2163</v>
       </c>
       <c r="D43" s="4">
-        <v>2.2195</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="44">
@@ -1109,13 +1088,13 @@
         <v>47</v>
       </c>
       <c r="B44" s="4">
-        <v>2.1613</v>
+        <v>0.5827</v>
       </c>
       <c r="C44" s="4">
-        <v>1.344</v>
+        <v>0.2495</v>
       </c>
       <c r="D44" s="4">
-        <v>2.0941</v>
+        <v>0.7232</v>
       </c>
     </row>
     <row r="45">
@@ -1123,13 +1102,13 @@
         <v>48</v>
       </c>
       <c r="B45" s="4">
-        <v>2.0595</v>
+        <v>0.3432</v>
       </c>
       <c r="C45" s="4">
-        <v>1.1572</v>
+        <v>0.129</v>
       </c>
       <c r="D45" s="4">
-        <v>1.894</v>
+        <v>0.5615</v>
       </c>
     </row>
     <row r="46">
@@ -1137,13 +1116,13 @@
         <v>49</v>
       </c>
       <c r="B46" s="4">
-        <v>1.8781</v>
+        <v>0.7454</v>
       </c>
       <c r="C46" s="4">
-        <v>1.0182</v>
+        <v>0.1839</v>
       </c>
       <c r="D46" s="4">
-        <v>1.6918</v>
+        <v>0.8313</v>
       </c>
     </row>
     <row r="47">
@@ -1151,13 +1130,13 @@
         <v>50</v>
       </c>
       <c r="B47" s="4">
-        <v>1.8032</v>
+        <v>0.9918</v>
       </c>
       <c r="C47" s="4">
-        <v>0.9412</v>
+        <v>0.3407</v>
       </c>
       <c r="D47" s="4">
-        <v>1.5628</v>
+        <v>1.114</v>
       </c>
     </row>
     <row r="48">
@@ -1165,13 +1144,13 @@
         <v>51</v>
       </c>
       <c r="B48" s="4">
-        <v>1.5957</v>
+        <v>0.8148</v>
       </c>
       <c r="C48" s="4">
-        <v>0.6593</v>
+        <v>0.1939</v>
       </c>
       <c r="D48" s="4">
-        <v>1.2879</v>
+        <v>1.0165</v>
       </c>
     </row>
     <row r="49">
@@ -1179,13 +1158,13 @@
         <v>52</v>
       </c>
       <c r="B49" s="4">
-        <v>1.5799</v>
+        <v>0.6635</v>
       </c>
       <c r="C49" s="4">
-        <v>0.7472</v>
+        <v>0.083</v>
       </c>
       <c r="D49" s="4">
-        <v>1.1702</v>
+        <v>0.8171</v>
       </c>
     </row>
     <row r="50">
@@ -1193,13 +1172,13 @@
         <v>53</v>
       </c>
       <c r="B50" s="4">
-        <v>1.5132</v>
+        <v>0.7077</v>
       </c>
       <c r="C50" s="4">
-        <v>0.6422</v>
+        <v>0.1433</v>
       </c>
       <c r="D50" s="4">
-        <v>1.027</v>
+        <v>0.8582</v>
       </c>
     </row>
     <row r="51">
@@ -1207,13 +1186,13 @@
         <v>54</v>
       </c>
       <c r="B51" s="4">
-        <v>1.2987</v>
+        <v>0.661</v>
       </c>
       <c r="C51" s="4">
-        <v>0.4959</v>
+        <v>0.1897</v>
       </c>
       <c r="D51" s="4">
-        <v>0.8695</v>
+        <v>0.9532</v>
       </c>
     </row>
     <row r="52">
@@ -1221,13 +1200,13 @@
         <v>55</v>
       </c>
       <c r="B52" s="4">
-        <v>1.136</v>
+        <v>0.8031</v>
       </c>
       <c r="C52" s="4">
-        <v>0.3513</v>
+        <v>0.1683</v>
       </c>
       <c r="D52" s="4">
-        <v>0.6815</v>
+        <v>0.9117</v>
       </c>
     </row>
     <row r="53">
@@ -1235,13 +1214,13 @@
         <v>56</v>
       </c>
       <c r="B53" s="4">
-        <v>1.0083</v>
+        <v>0.9323</v>
       </c>
       <c r="C53" s="4">
-        <v>0.3843</v>
+        <v>0.159</v>
       </c>
       <c r="D53" s="4">
-        <v>0.6603</v>
+        <v>1.0253</v>
       </c>
     </row>
     <row r="54">
@@ -1249,13 +1228,13 @@
         <v>57</v>
       </c>
       <c r="B54" s="4">
-        <v>0.7812</v>
+        <v>1.0204</v>
       </c>
       <c r="C54" s="4">
-        <v>0.3674</v>
+        <v>0.3329</v>
       </c>
       <c r="D54" s="4">
-        <v>0.7791</v>
+        <v>1.1768</v>
       </c>
     </row>
     <row r="55">
@@ -1263,13 +1242,13 @@
         <v>58</v>
       </c>
       <c r="B55" s="4">
-        <v>0.6153</v>
+        <v>0.769</v>
       </c>
       <c r="C55" s="4">
-        <v>0.2163</v>
+        <v>0.2015</v>
       </c>
       <c r="D55" s="4">
-        <v>0.65</v>
+        <v>0.975</v>
       </c>
     </row>
     <row r="56">
@@ -1277,13 +1256,13 @@
         <v>59</v>
       </c>
       <c r="B56" s="4">
-        <v>0.5827</v>
+        <v>0.8235</v>
       </c>
       <c r="C56" s="4">
-        <v>0.2495</v>
+        <v>0.1082</v>
       </c>
       <c r="D56" s="4">
-        <v>0.7232</v>
+        <v>0.8788</v>
       </c>
     </row>
     <row r="57">
@@ -1291,13 +1270,13 @@
         <v>60</v>
       </c>
       <c r="B57" s="4">
-        <v>0.3432</v>
+        <v>0.8113</v>
       </c>
       <c r="C57" s="4">
-        <v>0.129</v>
+        <v>0.08</v>
       </c>
       <c r="D57" s="4">
-        <v>0.5615</v>
+        <v>0.8383</v>
       </c>
     </row>
     <row r="58">
@@ -1305,13 +1284,13 @@
         <v>61</v>
       </c>
       <c r="B58" s="4">
-        <v>0.7454</v>
+        <v>0.7737</v>
       </c>
       <c r="C58" s="4">
-        <v>0.1839</v>
+        <v>0.0352</v>
       </c>
       <c r="D58" s="4">
-        <v>0.8313</v>
+        <v>0.7874</v>
       </c>
     </row>
     <row r="59">
@@ -1319,13 +1298,13 @@
         <v>62</v>
       </c>
       <c r="B59" s="4">
-        <v>0.9918</v>
+        <v>0.5206</v>
       </c>
       <c r="C59" s="4">
-        <v>0.3407</v>
+        <v>-0.0428</v>
       </c>
       <c r="D59" s="4">
-        <v>1.114</v>
+        <v>0.6073</v>
       </c>
     </row>
     <row r="60">
@@ -1333,13 +1312,13 @@
         <v>63</v>
       </c>
       <c r="B60" s="4">
-        <v>0.8148</v>
+        <v>0.167</v>
       </c>
       <c r="C60" s="4">
-        <v>0.1939</v>
+        <v>-0.1458</v>
       </c>
       <c r="D60" s="4">
-        <v>1.0165</v>
+        <v>0.3856</v>
       </c>
     </row>
     <row r="61">
@@ -1347,13 +1326,13 @@
         <v>64</v>
       </c>
       <c r="B61" s="4">
-        <v>0.6635</v>
+        <v>0.097</v>
       </c>
       <c r="C61" s="4">
-        <v>0.083</v>
+        <v>-0.2014</v>
       </c>
       <c r="D61" s="4">
-        <v>0.8171</v>
+        <v>0.2733</v>
       </c>
     </row>
     <row r="62">
@@ -1361,13 +1340,13 @@
         <v>65</v>
       </c>
       <c r="B62" s="4">
-        <v>0.7077</v>
+        <v>0.219</v>
       </c>
       <c r="C62" s="4">
-        <v>0.1433</v>
+        <v>-0.2009</v>
       </c>
       <c r="D62" s="4">
-        <v>0.8582</v>
+        <v>0.2664</v>
       </c>
     </row>
     <row r="63">
@@ -1375,13 +1354,13 @@
         <v>66</v>
       </c>
       <c r="B63" s="4">
-        <v>0.661</v>
+        <v>0.2394</v>
       </c>
       <c r="C63" s="4">
-        <v>0.1897</v>
+        <v>-0.2495</v>
       </c>
       <c r="D63" s="4">
-        <v>0.9532</v>
+        <v>0.2581</v>
       </c>
     </row>
     <row r="64">
@@ -1389,13 +1368,13 @@
         <v>67</v>
       </c>
       <c r="B64" s="4">
-        <v>0.8031</v>
+        <v>0.4294</v>
       </c>
       <c r="C64" s="4">
-        <v>0.1683</v>
+        <v>-0.264</v>
       </c>
       <c r="D64" s="4">
-        <v>0.9117</v>
+        <v>0.3966</v>
       </c>
     </row>
     <row r="65">
@@ -1403,13 +1382,13 @@
         <v>68</v>
       </c>
       <c r="B65" s="4">
-        <v>0.9323</v>
+        <v>0.6057</v>
       </c>
       <c r="C65" s="4">
-        <v>0.159</v>
+        <v>-0.232</v>
       </c>
       <c r="D65" s="4">
-        <v>1.0253</v>
+        <v>0.4925</v>
       </c>
     </row>
     <row r="66">
@@ -1417,13 +1396,13 @@
         <v>69</v>
       </c>
       <c r="B66" s="4">
-        <v>1.0204</v>
+        <v>0.6453</v>
       </c>
       <c r="C66" s="4">
-        <v>0.3329</v>
+        <v>0.0349</v>
       </c>
       <c r="D66" s="4">
-        <v>1.1768</v>
+        <v>0.7267</v>
       </c>
     </row>
     <row r="67">
@@ -1431,13 +1410,13 @@
         <v>70</v>
       </c>
       <c r="B67" s="4">
-        <v>0.769</v>
+        <v>0.6636</v>
       </c>
       <c r="C67" s="4">
-        <v>0.2015</v>
+        <v>0.0172</v>
       </c>
       <c r="D67" s="4">
-        <v>0.975</v>
+        <v>0.7112</v>
       </c>
     </row>
     <row r="68">
@@ -1445,13 +1424,13 @@
         <v>71</v>
       </c>
       <c r="B68" s="4">
-        <v>0.8235</v>
+        <v>0.6935</v>
       </c>
       <c r="C68" s="4">
-        <v>0.1082</v>
+        <v>0.0258</v>
       </c>
       <c r="D68" s="4">
-        <v>0.8788</v>
+        <v>0.7126</v>
       </c>
     </row>
     <row r="69">
@@ -1459,13 +1438,13 @@
         <v>72</v>
       </c>
       <c r="B69" s="4">
-        <v>0.8113</v>
+        <v>0.5704</v>
       </c>
       <c r="C69" s="4">
-        <v>0.08</v>
+        <v>-0.0481</v>
       </c>
       <c r="D69" s="4">
-        <v>0.8383</v>
+        <v>0.5488</v>
       </c>
     </row>
     <row r="70">
@@ -1473,13 +1452,13 @@
         <v>73</v>
       </c>
       <c r="B70" s="4">
-        <v>0.7737</v>
+        <v>0.5632</v>
       </c>
       <c r="C70" s="4">
-        <v>0.0352</v>
+        <v>-0.1047</v>
       </c>
       <c r="D70" s="4">
-        <v>0.7874</v>
+        <v>0.4819</v>
       </c>
     </row>
     <row r="71">
@@ -1487,13 +1466,13 @@
         <v>74</v>
       </c>
       <c r="B71" s="4">
-        <v>0.5206</v>
+        <v>0.4605</v>
       </c>
       <c r="C71" s="4">
-        <v>-0.0428</v>
+        <v>-0.1889</v>
       </c>
       <c r="D71" s="4">
-        <v>0.6073</v>
+        <v>0.4046</v>
       </c>
     </row>
     <row r="72">
@@ -1501,13 +1480,13 @@
         <v>75</v>
       </c>
       <c r="B72" s="4">
-        <v>0.167</v>
+        <v>0.664</v>
       </c>
       <c r="C72" s="4">
-        <v>-0.1458</v>
+        <v>-0.201</v>
       </c>
       <c r="D72" s="4">
-        <v>0.3856</v>
+        <v>0.5167</v>
       </c>
     </row>
     <row r="73">
@@ -1515,13 +1494,13 @@
         <v>76</v>
       </c>
       <c r="B73" s="4">
-        <v>0.097</v>
+        <v>0.6307</v>
       </c>
       <c r="C73" s="4">
-        <v>-0.2014</v>
+        <v>-0.1927</v>
       </c>
       <c r="D73" s="4">
-        <v>0.2733</v>
+        <v>0.5032</v>
       </c>
     </row>
     <row r="74">
@@ -1529,13 +1508,13 @@
         <v>77</v>
       </c>
       <c r="B74" s="4">
-        <v>0.219</v>
+        <v>0.6357</v>
       </c>
       <c r="C74" s="4">
-        <v>-0.2009</v>
+        <v>-0.1896</v>
       </c>
       <c r="D74" s="4">
-        <v>0.2664</v>
+        <v>0.5057</v>
       </c>
     </row>
     <row r="75">
@@ -1543,13 +1522,13 @@
         <v>78</v>
       </c>
       <c r="B75" s="4">
-        <v>0.2394</v>
+        <v>0.8787</v>
       </c>
       <c r="C75" s="4">
-        <v>-0.2495</v>
+        <v>-0.1976</v>
       </c>
       <c r="D75" s="4">
-        <v>0.2581</v>
+        <v>0.5068</v>
       </c>
     </row>
     <row r="76">
@@ -1557,13 +1536,13 @@
         <v>79</v>
       </c>
       <c r="B76" s="4">
-        <v>0.4294</v>
+        <v>0.7571</v>
       </c>
       <c r="C76" s="4">
-        <v>-0.264</v>
+        <v>-0.288</v>
       </c>
       <c r="D76" s="4">
-        <v>0.3966</v>
+        <v>0.3998</v>
       </c>
     </row>
     <row r="77">
@@ -1571,13 +1550,13 @@
         <v>80</v>
       </c>
       <c r="B77" s="4">
-        <v>0.6057</v>
+        <v>0.7196</v>
       </c>
       <c r="C77" s="4">
-        <v>-0.232</v>
+        <v>-0.249</v>
       </c>
       <c r="D77" s="4">
-        <v>0.4925</v>
+        <v>0.3766</v>
       </c>
     </row>
     <row r="78">
@@ -1585,13 +1564,13 @@
         <v>81</v>
       </c>
       <c r="B78" s="4">
-        <v>0.6453</v>
+        <v>0.8487</v>
       </c>
       <c r="C78" s="4">
-        <v>0.0349</v>
+        <v>-0.001</v>
       </c>
       <c r="D78" s="4">
-        <v>0.7267</v>
+        <v>0.9369</v>
       </c>
     </row>
     <row r="79">
@@ -1599,13 +1578,13 @@
         <v>82</v>
       </c>
       <c r="B79" s="4">
-        <v>0.6636</v>
+        <v>0.9142</v>
       </c>
       <c r="C79" s="4">
-        <v>0.0172</v>
+        <v>-0.0287</v>
       </c>
       <c r="D79" s="4">
-        <v>0.7112</v>
+        <v>0.9915</v>
       </c>
     </row>
     <row r="80">
@@ -1613,13 +1592,13 @@
         <v>83</v>
       </c>
       <c r="B80" s="4">
-        <v>0.6935</v>
+        <v>0.7703</v>
       </c>
       <c r="C80" s="4">
-        <v>0.0258</v>
+        <v>-0.1108</v>
       </c>
       <c r="D80" s="4">
-        <v>0.7126</v>
+        <v>0.8659</v>
       </c>
     </row>
     <row r="81">
@@ -1627,13 +1606,13 @@
         <v>84</v>
       </c>
       <c r="B81" s="4">
-        <v>0.5704</v>
+        <v>0.711</v>
       </c>
       <c r="C81" s="4">
-        <v>-0.0481</v>
+        <v>-0.1865</v>
       </c>
       <c r="D81" s="4">
-        <v>0.5488</v>
+        <v>0.7813</v>
       </c>
     </row>
     <row r="82">
@@ -1641,13 +1620,13 @@
         <v>85</v>
       </c>
       <c r="B82" s="4">
-        <v>0.5632</v>
+        <v>0.6555</v>
       </c>
       <c r="C82" s="4">
-        <v>-0.1047</v>
+        <v>-0.1993</v>
       </c>
       <c r="D82" s="4">
-        <v>0.4819</v>
+        <v>0.7579</v>
       </c>
     </row>
     <row r="83">
@@ -1655,13 +1634,13 @@
         <v>86</v>
       </c>
       <c r="B83" s="4">
-        <v>0.4605</v>
+        <v>0.5521</v>
       </c>
       <c r="C83" s="4">
-        <v>-0.1889</v>
+        <v>-0.249</v>
       </c>
       <c r="D83" s="4">
-        <v>0.4046</v>
+        <v>0.691</v>
       </c>
     </row>
     <row r="84">
@@ -1669,13 +1648,13 @@
         <v>87</v>
       </c>
       <c r="B84" s="4">
-        <v>0.664</v>
+        <v>0.5068</v>
       </c>
       <c r="C84" s="4">
-        <v>-0.201</v>
+        <v>-0.2296</v>
       </c>
       <c r="D84" s="4">
-        <v>0.5167</v>
+        <v>0.6425</v>
       </c>
     </row>
     <row r="85">
@@ -1683,13 +1662,13 @@
         <v>88</v>
       </c>
       <c r="B85" s="4">
-        <v>0.6307</v>
+        <v>0.5164</v>
       </c>
       <c r="C85" s="4">
-        <v>-0.1927</v>
+        <v>-0.2319</v>
       </c>
       <c r="D85" s="4">
-        <v>0.5032</v>
+        <v>0.6244</v>
       </c>
     </row>
     <row r="86">
@@ -1697,13 +1676,13 @@
         <v>89</v>
       </c>
       <c r="B86" s="4">
-        <v>0.6357</v>
+        <v>0.5978</v>
       </c>
       <c r="C86" s="4">
-        <v>-0.1896</v>
+        <v>-0.1585</v>
       </c>
       <c r="D86" s="4">
-        <v>0.5057</v>
+        <v>0.6885</v>
       </c>
     </row>
     <row r="87">
@@ -1711,13 +1690,13 @@
         <v>90</v>
       </c>
       <c r="B87" s="4">
-        <v>0.8787</v>
+        <v>0.6714</v>
       </c>
       <c r="C87" s="4">
-        <v>-0.1976</v>
+        <v>-0.105</v>
       </c>
       <c r="D87" s="4">
-        <v>0.5068</v>
+        <v>0.7991</v>
       </c>
     </row>
     <row r="88">
@@ -1725,13 +1704,13 @@
         <v>91</v>
       </c>
       <c r="B88" s="4">
-        <v>0.7571</v>
+        <v>0.5965</v>
       </c>
       <c r="C88" s="4">
-        <v>-0.288</v>
+        <v>-0.104</v>
       </c>
       <c r="D88" s="4">
-        <v>0.3998</v>
+        <v>0.7452</v>
       </c>
     </row>
     <row r="89">
@@ -1739,13 +1718,13 @@
         <v>92</v>
       </c>
       <c r="B89" s="4">
-        <v>0.7196</v>
+        <v>0.4725</v>
       </c>
       <c r="C89" s="4">
-        <v>-0.249</v>
+        <v>-0.1152</v>
       </c>
       <c r="D89" s="4">
-        <v>0.3766</v>
+        <v>0.655</v>
       </c>
     </row>
     <row r="90">
@@ -1753,13 +1732,13 @@
         <v>93</v>
       </c>
       <c r="B90" s="4">
-        <v>0.8487</v>
+        <v>0.4257</v>
       </c>
       <c r="C90" s="4">
-        <v>-0.001</v>
+        <v>0.268</v>
       </c>
       <c r="D90" s="4">
-        <v>0.9369</v>
+        <v>0.8111</v>
       </c>
     </row>
     <row r="91">
@@ -1767,13 +1746,13 @@
         <v>94</v>
       </c>
       <c r="B91" s="4">
-        <v>0.9142</v>
+        <v>0.357</v>
       </c>
       <c r="C91" s="4">
-        <v>-0.0287</v>
+        <v>0.2172</v>
       </c>
       <c r="D91" s="4">
-        <v>0.9915</v>
+        <v>0.6835</v>
       </c>
     </row>
     <row r="92">
@@ -1781,13 +1760,13 @@
         <v>95</v>
       </c>
       <c r="B92" s="4">
-        <v>0.7703</v>
+        <v>0.294</v>
       </c>
       <c r="C92" s="4">
-        <v>-0.1108</v>
+        <v>0.2012</v>
       </c>
       <c r="D92" s="4">
-        <v>0.8659</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="93">
@@ -1795,13 +1774,13 @@
         <v>96</v>
       </c>
       <c r="B93" s="4">
-        <v>0.711</v>
+        <v>0.3779</v>
       </c>
       <c r="C93" s="4">
-        <v>-0.1865</v>
+        <v>0.1909</v>
       </c>
       <c r="D93" s="4">
-        <v>0.7813</v>
+        <v>0.5521</v>
       </c>
     </row>
     <row r="94">
@@ -1809,13 +1788,13 @@
         <v>97</v>
       </c>
       <c r="B94" s="4">
-        <v>0.6555</v>
+        <v>0.2153</v>
       </c>
       <c r="C94" s="4">
-        <v>-0.1993</v>
+        <v>0.0923</v>
       </c>
       <c r="D94" s="4">
-        <v>0.7579</v>
+        <v>0.3986</v>
       </c>
     </row>
     <row r="95">
@@ -1823,13 +1802,13 @@
         <v>98</v>
       </c>
       <c r="B95" s="4">
-        <v>0.5521</v>
+        <v>0.0452</v>
       </c>
       <c r="C95" s="4">
-        <v>-0.249</v>
+        <v>-0.0346</v>
       </c>
       <c r="D95" s="4">
-        <v>0.691</v>
+        <v>0.2283</v>
       </c>
     </row>
     <row r="96">
@@ -1837,13 +1816,13 @@
         <v>99</v>
       </c>
       <c r="B96" s="4">
-        <v>0.5068</v>
+        <v>0.0208</v>
       </c>
       <c r="C96" s="4">
-        <v>-0.2296</v>
+        <v>-0.0324</v>
       </c>
       <c r="D96" s="4">
-        <v>0.6425</v>
+        <v>0.2133</v>
       </c>
     </row>
     <row r="97">
@@ -1851,13 +1830,13 @@
         <v>100</v>
       </c>
       <c r="B97" s="4">
-        <v>0.5164</v>
+        <v>-0.2884</v>
       </c>
       <c r="C97" s="4">
-        <v>-0.2319</v>
+        <v>-0.161</v>
       </c>
       <c r="D97" s="4">
-        <v>0.6244</v>
+        <v>0.0019</v>
       </c>
     </row>
     <row r="98">
@@ -1865,13 +1844,13 @@
         <v>101</v>
       </c>
       <c r="B98" s="4">
-        <v>0.5978</v>
+        <v>-0.2315</v>
       </c>
       <c r="C98" s="4">
-        <v>-0.1585</v>
+        <v>-0.0854</v>
       </c>
       <c r="D98" s="4">
-        <v>0.6885</v>
+        <v>0.0616</v>
       </c>
     </row>
     <row r="99">
@@ -1879,13 +1858,13 @@
         <v>102</v>
       </c>
       <c r="B99" s="4">
-        <v>0.6714</v>
+        <v>-0.1598</v>
       </c>
       <c r="C99" s="4">
-        <v>-0.105</v>
+        <v>0.027</v>
       </c>
       <c r="D99" s="4">
-        <v>0.7991</v>
+        <v>0.1744</v>
       </c>
     </row>
     <row r="100">
@@ -1893,13 +1872,13 @@
         <v>103</v>
       </c>
       <c r="B100" s="4">
-        <v>0.5965</v>
+        <v>-0.0015</v>
       </c>
       <c r="C100" s="4">
-        <v>-0.104</v>
+        <v>0.1967</v>
       </c>
       <c r="D100" s="4">
-        <v>0.7452</v>
+        <v>0.362</v>
       </c>
     </row>
     <row r="101">
@@ -1907,13 +1886,13 @@
         <v>104</v>
       </c>
       <c r="B101" s="4">
-        <v>0.4725</v>
+        <v>0.0671</v>
       </c>
       <c r="C101" s="4">
-        <v>-0.1152</v>
+        <v>0.2221</v>
       </c>
       <c r="D101" s="4">
-        <v>0.655</v>
+        <v>0.4114</v>
       </c>
     </row>
     <row r="102">
@@ -1921,13 +1900,13 @@
         <v>105</v>
       </c>
       <c r="B102" s="4">
-        <v>0.4257</v>
+        <v>0.1056</v>
       </c>
       <c r="C102" s="4">
-        <v>0.268</v>
+        <v>0.2762</v>
       </c>
       <c r="D102" s="4">
-        <v>0.8111</v>
+        <v>0.5183</v>
       </c>
     </row>
     <row r="103">
@@ -1935,13 +1914,13 @@
         <v>106</v>
       </c>
       <c r="B103" s="4">
-        <v>0.357</v>
+        <v>-0.0457</v>
       </c>
       <c r="C103" s="4">
-        <v>0.2172</v>
+        <v>0.1917</v>
       </c>
       <c r="D103" s="4">
-        <v>0.6835</v>
+        <v>0.3796</v>
       </c>
     </row>
     <row r="104">
@@ -1949,13 +1928,13 @@
         <v>107</v>
       </c>
       <c r="B104" s="4">
-        <v>0.294</v>
+        <v>-0.1677</v>
       </c>
       <c r="C104" s="4">
-        <v>0.2012</v>
+        <v>0.1751</v>
       </c>
       <c r="D104" s="4">
-        <v>0.6</v>
+        <v>0.4675</v>
       </c>
     </row>
     <row r="105">
@@ -1963,13 +1942,13 @@
         <v>108</v>
       </c>
       <c r="B105" s="4">
-        <v>0.3779</v>
+        <v>-0.0742</v>
       </c>
       <c r="C105" s="4">
-        <v>0.1909</v>
+        <v>0.172</v>
       </c>
       <c r="D105" s="4">
-        <v>0.5521</v>
+        <v>0.4399</v>
       </c>
     </row>
     <row r="106">
@@ -1977,13 +1956,13 @@
         <v>109</v>
       </c>
       <c r="B106" s="4">
-        <v>0.2153</v>
+        <v>-0.0607</v>
       </c>
       <c r="C106" s="4">
-        <v>0.0923</v>
+        <v>0.1197</v>
       </c>
       <c r="D106" s="4">
-        <v>0.3986</v>
+        <v>0.3235</v>
       </c>
     </row>
     <row r="107">
@@ -1991,13 +1970,13 @@
         <v>110</v>
       </c>
       <c r="B107" s="4">
-        <v>0.0452</v>
+        <v>0.0061</v>
       </c>
       <c r="C107" s="4">
-        <v>-0.0346</v>
+        <v>0.112</v>
       </c>
       <c r="D107" s="4">
-        <v>0.2283</v>
+        <v>0.322</v>
       </c>
     </row>
     <row r="108">
@@ -2005,13 +1984,13 @@
         <v>111</v>
       </c>
       <c r="B108" s="4">
-        <v>0.0208</v>
+        <v>-0.0732</v>
       </c>
       <c r="C108" s="4">
-        <v>-0.0324</v>
+        <v>0.0297</v>
       </c>
       <c r="D108" s="4">
-        <v>0.2133</v>
+        <v>0.1882</v>
       </c>
     </row>
     <row r="109">
@@ -2019,13 +1998,13 @@
         <v>112</v>
       </c>
       <c r="B109" s="4">
-        <v>-0.2884</v>
+        <v>-0.0403</v>
       </c>
       <c r="C109" s="4">
-        <v>-0.161</v>
+        <v>0.0247</v>
       </c>
       <c r="D109" s="4">
-        <v>0.0019</v>
+        <v>0.182</v>
       </c>
     </row>
     <row r="110">
@@ -2033,13 +2012,13 @@
         <v>113</v>
       </c>
       <c r="B110" s="4">
-        <v>-0.2315</v>
+        <v>-0.0826</v>
       </c>
       <c r="C110" s="4">
-        <v>-0.0854</v>
+        <v>-0.0231</v>
       </c>
       <c r="D110" s="4">
-        <v>0.0616</v>
+        <v>0.1147</v>
       </c>
     </row>
     <row r="111">
@@ -2047,13 +2026,13 @@
         <v>114</v>
       </c>
       <c r="B111" s="4">
-        <v>-0.1598</v>
+        <v>-0.0286</v>
       </c>
       <c r="C111" s="4">
-        <v>0.027</v>
+        <v>-0.0337</v>
       </c>
       <c r="D111" s="4">
-        <v>0.1744</v>
+        <v>0.1013</v>
       </c>
     </row>
     <row r="112">
@@ -2061,13 +2040,13 @@
         <v>115</v>
       </c>
       <c r="B112" s="4">
-        <v>-0.0015</v>
+        <v>-0.0003</v>
       </c>
       <c r="C112" s="4">
-        <v>0.1967</v>
+        <v>-0.036</v>
       </c>
       <c r="D112" s="4">
-        <v>0.362</v>
+        <v>0.1069</v>
       </c>
     </row>
     <row r="113">
@@ -2075,13 +2054,13 @@
         <v>116</v>
       </c>
       <c r="B113" s="4">
-        <v>0.0671</v>
+        <v>0.0054</v>
       </c>
       <c r="C113" s="4">
-        <v>0.2221</v>
+        <v>-0.0538</v>
       </c>
       <c r="D113" s="4">
-        <v>0.4114</v>
+        <v>0.0519</v>
       </c>
     </row>
     <row r="114">
@@ -2089,13 +2068,13 @@
         <v>117</v>
       </c>
       <c r="B114" s="4">
-        <v>0.1056</v>
+        <v>0.0701</v>
       </c>
       <c r="C114" s="4">
-        <v>0.2762</v>
+        <v>0.0697</v>
       </c>
       <c r="D114" s="4">
-        <v>0.5183</v>
+        <v>0.1794</v>
       </c>
     </row>
     <row r="115">
@@ -2103,13 +2082,13 @@
         <v>118</v>
       </c>
       <c r="B115" s="4">
-        <v>-0.0457</v>
+        <v>0.2471</v>
       </c>
       <c r="C115" s="4">
-        <v>0.1917</v>
+        <v>0.1114</v>
       </c>
       <c r="D115" s="4">
-        <v>0.3796</v>
+        <v>0.2615</v>
       </c>
     </row>
     <row r="116">
@@ -2117,13 +2096,13 @@
         <v>119</v>
       </c>
       <c r="B116" s="4">
-        <v>-0.1677</v>
+        <v>0.3987</v>
       </c>
       <c r="C116" s="4">
-        <v>0.1751</v>
+        <v>0.1784</v>
       </c>
       <c r="D116" s="4">
-        <v>0.4675</v>
+        <v>0.4009</v>
       </c>
     </row>
     <row r="117">
@@ -2131,13 +2110,13 @@
         <v>120</v>
       </c>
       <c r="B117" s="4">
-        <v>-0.0742</v>
+        <v>0.3702</v>
       </c>
       <c r="C117" s="4">
-        <v>0.172</v>
+        <v>0.1248</v>
       </c>
       <c r="D117" s="4">
-        <v>0.4399</v>
+        <v>0.3577</v>
       </c>
     </row>
     <row r="118">
@@ -2145,13 +2124,13 @@
         <v>121</v>
       </c>
       <c r="B118" s="4">
-        <v>-0.0607</v>
+        <v>0.4212</v>
       </c>
       <c r="C118" s="4">
-        <v>0.1197</v>
+        <v>0.1594</v>
       </c>
       <c r="D118" s="4">
-        <v>0.3235</v>
+        <v>0.4034</v>
       </c>
     </row>
     <row r="119">
@@ -2159,13 +2138,13 @@
         <v>122</v>
       </c>
       <c r="B119" s="4">
-        <v>0.0061</v>
+        <v>0.3615</v>
       </c>
       <c r="C119" s="4">
-        <v>0.112</v>
+        <v>0.1681</v>
       </c>
       <c r="D119" s="4">
-        <v>0.322</v>
+        <v>0.4112</v>
       </c>
     </row>
     <row r="120">
@@ -2173,13 +2152,13 @@
         <v>123</v>
       </c>
       <c r="B120" s="4">
-        <v>-0.0732</v>
+        <v>0.1808</v>
       </c>
       <c r="C120" s="4">
-        <v>0.0297</v>
+        <v>0.0989</v>
       </c>
       <c r="D120" s="4">
-        <v>0.1882</v>
+        <v>0.3136</v>
       </c>
     </row>
     <row r="121">
@@ -2187,13 +2166,13 @@
         <v>124</v>
       </c>
       <c r="B121" s="4">
-        <v>-0.0403</v>
+        <v>0.1101</v>
       </c>
       <c r="C121" s="4">
-        <v>0.0247</v>
+        <v>0.0802</v>
       </c>
       <c r="D121" s="4">
-        <v>0.182</v>
+        <v>0.271</v>
       </c>
     </row>
     <row r="122">
@@ -2201,13 +2180,13 @@
         <v>125</v>
       </c>
       <c r="B122" s="4">
-        <v>-0.0826</v>
+        <v>0.2696</v>
       </c>
       <c r="C122" s="4">
-        <v>-0.0231</v>
+        <v>0.1506</v>
       </c>
       <c r="D122" s="4">
-        <v>0.1147</v>
+        <v>0.411</v>
       </c>
     </row>
     <row r="123">
@@ -2215,13 +2194,13 @@
         <v>126</v>
       </c>
       <c r="B123" s="4">
-        <v>-0.0286</v>
+        <v>0.3806</v>
       </c>
       <c r="C123" s="4">
-        <v>-0.0337</v>
+        <v>0.2352</v>
       </c>
       <c r="D123" s="4">
-        <v>0.1013</v>
+        <v>0.5873</v>
       </c>
     </row>
     <row r="124">
@@ -2229,13 +2208,13 @@
         <v>127</v>
       </c>
       <c r="B124" s="4">
-        <v>-0.0003</v>
+        <v>0.2667</v>
       </c>
       <c r="C124" s="4">
-        <v>-0.036</v>
+        <v>0.3395</v>
       </c>
       <c r="D124" s="4">
-        <v>0.1069</v>
+        <v>0.6684</v>
       </c>
     </row>
     <row r="125">
@@ -2243,13 +2222,13 @@
         <v>128</v>
       </c>
       <c r="B125" s="4">
-        <v>0.0054</v>
+        <v>0.138</v>
       </c>
       <c r="C125" s="4">
-        <v>-0.0538</v>
+        <v>0.2847</v>
       </c>
       <c r="D125" s="4">
-        <v>0.0519</v>
+        <v>0.5992</v>
       </c>
     </row>
     <row r="126">
@@ -2257,13 +2236,13 @@
         <v>129</v>
       </c>
       <c r="B126" s="4">
-        <v>0.0701</v>
+        <v>0.3603</v>
       </c>
       <c r="C126" s="4">
-        <v>0.0697</v>
+        <v>0.6529</v>
       </c>
       <c r="D126" s="4">
-        <v>0.1794</v>
+        <v>0.951</v>
       </c>
     </row>
     <row r="127">
@@ -2271,214 +2250,102 @@
         <v>130</v>
       </c>
       <c r="B127" s="4">
-        <v>0.2471</v>
+        <v>0.606</v>
       </c>
       <c r="C127" s="4">
-        <v>0.1114</v>
+        <v>0.9798</v>
       </c>
       <c r="D127" s="4">
-        <v>0.2615</v>
+        <v>1.3076</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="B128" s="4">
-        <v>0.3987</v>
-      </c>
-      <c r="C128" s="4">
-        <v>0.1784</v>
-      </c>
-      <c r="D128" s="4">
-        <v>0.4009</v>
+      <c r="B128" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="C128" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="D128" s="0" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="B129" s="4">
-        <v>0.3702</v>
-      </c>
-      <c r="C129" s="4">
-        <v>0.1248</v>
-      </c>
-      <c r="D129" s="4">
-        <v>0.3577</v>
+        <v>133</v>
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="B130" s="4">
-        <v>0.4212</v>
-      </c>
-      <c r="C130" s="4">
-        <v>0.1594</v>
-      </c>
-      <c r="D130" s="4">
-        <v>0.4034</v>
+      <c r="A130" s="1" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="B131" s="4">
-        <v>0.3615</v>
-      </c>
-      <c r="C131" s="4">
-        <v>0.1681</v>
-      </c>
-      <c r="D131" s="4">
-        <v>0.4112</v>
+        <v>133</v>
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="0" t="s">
+      <c r="A132" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="B132" s="4">
-        <v>0.1808</v>
-      </c>
-      <c r="C132" s="4">
-        <v>0.0989</v>
-      </c>
-      <c r="D132" s="4">
-        <v>0.3136</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="B133" s="4">
-        <v>0.1101</v>
-      </c>
-      <c r="C133" s="4">
-        <v>0.0802</v>
-      </c>
-      <c r="D133" s="4">
-        <v>0.271</v>
-      </c>
     </row>
     <row r="134">
       <c r="A134" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="B134" s="4">
-        <v>0.2696</v>
-      </c>
-      <c r="C134" s="4">
-        <v>0.1506</v>
-      </c>
-      <c r="D134" s="4">
-        <v>0.411</v>
-      </c>
     </row>
     <row r="135">
       <c r="A135" s="0" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="B135" s="4">
-        <v>0.3806</v>
-      </c>
-      <c r="C135" s="4">
-        <v>0.2352</v>
-      </c>
-      <c r="D135" s="4">
-        <v>0.5873</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="B136" s="4">
-        <v>0.2667</v>
-      </c>
-      <c r="C136" s="4">
-        <v>0.3395</v>
-      </c>
-      <c r="D136" s="4">
-        <v>0.6684</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="0" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="1" t="s">
-        <v>141</v>
+      <c r="A138" s="0" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="0" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="0" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="0" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="0" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="0" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="0" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="0" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="0" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="0" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="0" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
